--- a/data/theatre/sorted/1900/classified/data_1900_classified.xlsx
+++ b/data/theatre/sorted/1900/classified/data_1900_classified.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinabonan/Desktop/GitHubRepos/parameters-corpus-work/data/theatre/sorted/1900/classified/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E5C47A-4679-DA41-A29B-7CA2CD418605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5B0F72-340D-834B-B5F9-99D0E73C9F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34140" yWindow="-10300" windowWidth="38860" windowHeight="28020" activeTab="1" xr2:uid="{CD328AC5-ADCA-45D2-A47F-B13888C794E7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{CD328AC5-ADCA-45D2-A47F-B13888C794E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="81" r:id="rId3"/>
+    <pivotCache cacheId="36" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13809" uniqueCount="1686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13818" uniqueCount="1687">
   <si>
     <t>ID</t>
   </si>
@@ -5112,6 +5112,9 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>quoiO</t>
   </si>
 </sst>
 </file>
@@ -5833,7 +5836,580 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F7CE-A146-867A-7E91D4AF0A32}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-F7CE-A146-867A-7E91D4AF0A32}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-1E57-3A40-945E-55DDC4120757}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-F7CE-A146-867A-7E91D4AF0A32}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-F7CE-A146-867A-7E91D4AF0A32}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:alpha val="90000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:srgbClr val="4472C4"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:srgbClr val="4472C4">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-1E57-3A40-945E-55DDC4120757}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:alpha val="90000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="4472C4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:srgbClr val="4472C4">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$27:$I$27</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>VS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SV</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>est-ce que</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$34:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F7CE-A146-867A-7E91D4AF0A32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6376,6 +6952,574 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="263">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:innerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d contourW="19050" prstMaterial="flat">
+        <a:contourClr>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6386,10 +7530,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6409,6 +7553,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8DF3ED4-69E1-DC2B-1EF6-E947ADA9144A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14996,7 +16176,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E03EB4AE-CAEE-DE4D-BB56-B7B6E5B178BB}" name="PivotTable5" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E03EB4AE-CAEE-DE4D-BB56-B7B6E5B178BB}" name="PivotTable5" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B3:C42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -70628,10 +71808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA418E1-D64A-E045-BC96-A16FC8319A4E}">
-  <dimension ref="B3:C42"/>
+  <dimension ref="B3:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="228" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -70753,7 +71933,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>513</v>
       </c>
@@ -70761,7 +71941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
@@ -70769,7 +71949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>68</v>
       </c>
@@ -70777,7 +71957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
         <v>33</v>
       </c>
@@ -70785,7 +71965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
@@ -70793,7 +71973,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
         <v>24</v>
       </c>
@@ -70801,7 +71981,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -70809,7 +71989,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>1680</v>
       </c>
@@ -70817,7 +71997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
         <v>24</v>
       </c>
@@ -70825,7 +72005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="10" t="s">
         <v>33</v>
       </c>
@@ -70833,71 +72013,164 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
         <v>1679</v>
       </c>
       <c r="C27" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <v>35</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C29" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29">
+        <v>35</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>513</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
         <v>1678</v>
       </c>
       <c r="C31" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>1677</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>20</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>1678</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>1686</v>
+      </c>
+      <c r="G33">
+        <v>17</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
         <v>1677</v>
       </c>
       <c r="C34" s="6">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <f>SUM(G28:G33)</f>
+        <v>103</v>
+      </c>
+      <c r="H34">
+        <f>SUM(H28:H33)</f>
+        <v>30</v>
+      </c>
+      <c r="I34">
+        <f>SUM(I28:I33)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
         <v>24</v>
       </c>
@@ -70905,7 +72178,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="10" t="s">
         <v>25</v>
       </c>
@@ -70913,7 +72186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" s="10" t="s">
         <v>68</v>
       </c>
@@ -70921,7 +72194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="10" t="s">
         <v>33</v>
       </c>
@@ -70929,7 +72202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
         <v>1676</v>
       </c>
@@ -70937,7 +72210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
         <v>24</v>
       </c>
@@ -70945,7 +72218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" s="10" t="s">
         <v>33</v>
       </c>
@@ -70953,7 +72226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
         <v>1685</v>
       </c>

--- a/data/theatre/sorted/1900/classified/data_1900_classified.xlsx
+++ b/data/theatre/sorted/1900/classified/data_1900_classified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinabonan/Desktop/GitHubRepos/parameters-corpus-work/data/theatre/sorted/1900/classified/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5B0F72-340D-834B-B5F9-99D0E73C9F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D1A315-FF14-A44E-B8E5-A8F6F1AC5F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{CD328AC5-ADCA-45D2-A47F-B13888C794E7}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{CD328AC5-ADCA-45D2-A47F-B13888C794E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="36" r:id="rId3"/>
+    <pivotCache cacheId="52" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13818" uniqueCount="1687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13826" uniqueCount="1688">
   <si>
     <t>ID</t>
   </si>
@@ -5115,6 +5115,9 @@
   </si>
   <si>
     <t>quoiO</t>
+  </si>
+  <si>
+    <t>autre</t>
   </si>
 </sst>
 </file>
@@ -6369,6 +6372,940 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-52EB-1849-89E3-FCC960FBEF09}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-52EB-1849-89E3-FCC960FBEF09}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-52EB-1849-89E3-FCC960FBEF09}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-52EB-1849-89E3-FCC960FBEF09}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-52EB-1849-89E3-FCC960FBEF09}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-52EB-1849-89E3-FCC960FBEF09}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$R$28:$S$30</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>VS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>VS</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>est-ce que</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>que</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>qu'</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>qu'</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$28:$T$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-52EB-1849-89E3-FCC960FBEF09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0A4F-894F-B786-DC8BEF663A93}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:innerShdw blurRad="114300">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d contourW="19050" prstMaterial="flat">
+                <a:contourClr>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-0A4F-894F-B786-DC8BEF663A93}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0A4F-894F-B786-DC8BEF663A93}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0A4F-894F-B786-DC8BEF663A93}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$40:$T$40</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>que</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>autre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$41:$T$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A4F-894F-B786-DC8BEF663A93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6410,6 +7347,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7520,6 +8537,1142 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="263">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:innerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d contourW="19050" prstMaterial="flat">
+        <a:contourClr>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="263">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="40000"/>
+          </a:schemeClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+      <a:effectLst/>
+    </cs:defRPr>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="90000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:innerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d contourW="19050" prstMaterial="flat">
+        <a:contourClr>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7594,6 +9747,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E12F5374-7B3F-BE2E-6937-B977A5EEE202}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F5D90D-0284-4D20-7602-B64418547A8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16176,7 +18401,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E03EB4AE-CAEE-DE4D-BB56-B7B6E5B178BB}" name="PivotTable5" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E03EB4AE-CAEE-DE4D-BB56-B7B6E5B178BB}" name="PivotTable5" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B3:C42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -71808,10 +74033,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA418E1-D64A-E045-BC96-A16FC8319A4E}">
-  <dimension ref="B3:I42"/>
+  <dimension ref="B3:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="J18" workbookViewId="0">
+      <selection activeCell="AB46" sqref="AB46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -71933,7 +74158,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>513</v>
       </c>
@@ -71941,7 +74166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
@@ -71949,7 +74174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
         <v>68</v>
       </c>
@@ -71957,7 +74182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
         <v>33</v>
       </c>
@@ -71965,7 +74190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
         <v>41</v>
       </c>
@@ -71973,7 +74198,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
         <v>24</v>
       </c>
@@ -71981,7 +74206,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
@@ -71989,7 +74214,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>1680</v>
       </c>
@@ -71997,7 +74222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
         <v>24</v>
       </c>
@@ -72005,7 +74230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="10" t="s">
         <v>33</v>
       </c>
@@ -72013,7 +74238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
         <v>1679</v>
       </c>
@@ -72030,7 +74255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
         <v>24</v>
       </c>
@@ -72049,8 +74274,17 @@
       <c r="I28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="R28" t="s">
+        <v>41</v>
+      </c>
+      <c r="S28" t="s">
+        <v>33</v>
+      </c>
+      <c r="T28">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
         <v>68</v>
       </c>
@@ -72069,8 +74303,17 @@
       <c r="I29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="R29" t="s">
+        <v>23</v>
+      </c>
+      <c r="S29" t="s">
+        <v>33</v>
+      </c>
+      <c r="T29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="10" t="s">
         <v>33</v>
       </c>
@@ -72089,8 +74332,17 @@
       <c r="I30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="R30" t="s">
+        <v>23</v>
+      </c>
+      <c r="S30" t="s">
+        <v>25</v>
+      </c>
+      <c r="T30">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
         <v>1678</v>
       </c>
@@ -72110,7 +74362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
         <v>24</v>
       </c>
@@ -72130,7 +74382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" s="10" t="s">
         <v>33</v>
       </c>
@@ -72150,7 +74402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
         <v>1677</v>
       </c>
@@ -72170,7 +74422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
         <v>24</v>
       </c>
@@ -72178,7 +74430,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B36" s="10" t="s">
         <v>25</v>
       </c>
@@ -72186,7 +74438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="10" t="s">
         <v>68</v>
       </c>
@@ -72194,7 +74446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" s="10" t="s">
         <v>33</v>
       </c>
@@ -72202,7 +74454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
         <v>1676</v>
       </c>
@@ -72210,23 +74462,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="S40" t="s">
+        <v>41</v>
+      </c>
+      <c r="T40" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C41" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="R41">
+        <v>1800</v>
+      </c>
+      <c r="S41">
+        <f>SUM(T28:T30)</f>
+        <v>252</v>
+      </c>
+      <c r="T41">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
         <v>1685</v>
       </c>
